--- a/data/quotation_princing_analysis/INDEPENDENT CIP EVAPORATOR CIR RETURN LINE GOING TO IS 400M3 TANK - FEDCON.xlsx
+++ b/data/quotation_princing_analysis/INDEPENDENT CIP EVAPORATOR CIR RETURN LINE GOING TO IS 400M3 TANK - FEDCON.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\00_ML\00_Power BI\docu1\tbmc-data-management\data\quotation_princing_analysis\Ongoing\For CSV\for next cleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\00_ML\00_Power BI\docu1\tbmc-data-management\data\quotation_princing_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0345E42E-F92E-4B42-90F2-58BC1C5B239B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006EFD7C-A1C9-4740-84EE-6830A17F15DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="118">
   <si>
     <t>UNIT</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>gal</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>PROJECT</t>
@@ -1496,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G108"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1518,10 +1515,10 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1536,22 +1533,22 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
@@ -1568,21 +1565,21 @@
         <v>15000</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
@@ -1599,21 +1596,21 @@
         <v>15000</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
@@ -1630,21 +1627,21 @@
         <v>12000</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
@@ -1661,21 +1658,21 @@
         <v>18000</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
@@ -1692,25 +1689,23 @@
         <v>3500</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1725,21 +1720,21 @@
         <v>5000</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
@@ -1756,21 +1751,21 @@
         <v>18000</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
@@ -1787,21 +1782,21 @@
         <v>18000</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
@@ -1818,21 +1813,21 @@
         <v>102000</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
@@ -1849,21 +1844,21 @@
         <v>12500</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
@@ -1880,21 +1875,21 @@
         <v>60000</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
@@ -1911,21 +1906,21 @@
         <v>21000</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
@@ -1942,21 +1937,21 @@
         <v>21000</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
@@ -1973,21 +1968,21 @@
         <v>35000</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
@@ -2004,21 +1999,21 @@
         <v>15000</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
@@ -2035,21 +2030,21 @@
         <v>10000</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
@@ -2066,21 +2061,21 @@
         <v>15000</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="7" t="s">
@@ -2092,20 +2087,20 @@
       <c r="E19" s="14"/>
       <c r="F19" s="9"/>
       <c r="G19" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="7" t="s">
@@ -2117,20 +2112,20 @@
       <c r="E20" s="17"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="7" t="s">
@@ -2142,20 +2137,20 @@
       <c r="E21" s="17"/>
       <c r="F21" s="9"/>
       <c r="G21" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="7" t="s">
@@ -2167,20 +2162,20 @@
       <c r="E22" s="17"/>
       <c r="F22" s="9"/>
       <c r="G22" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="7" t="s">
@@ -2198,20 +2193,20 @@
         <v>64000</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="7" t="s">
@@ -2228,20 +2223,20 @@
         <v>70000</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="7" t="s">
@@ -2258,20 +2253,20 @@
         <v>10000</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M25" s="16"/>
     </row>
     <row r="26" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="7" t="s">
@@ -2288,20 +2283,20 @@
         <v>11000</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M26" s="16"/>
     </row>
     <row r="27" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="7" t="s">
@@ -2318,20 +2313,20 @@
         <v>500</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M27" s="16"/>
     </row>
     <row r="28" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="7" t="s">
@@ -2348,20 +2343,20 @@
         <v>10600</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="7" t="s">
@@ -2378,20 +2373,20 @@
         <v>4000</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M29" s="16"/>
     </row>
     <row r="30" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="7" t="s">
@@ -2408,20 +2403,20 @@
         <v>7500</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M30" s="16"/>
     </row>
     <row r="31" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="7" t="s">
@@ -2438,20 +2433,20 @@
         <v>3500</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="7" t="s">
@@ -2468,20 +2463,20 @@
         <v>20000</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="7" t="s">
@@ -2493,20 +2488,20 @@
       <c r="E33" s="17"/>
       <c r="F33" s="9"/>
       <c r="G33" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M33" s="16"/>
     </row>
     <row r="34" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="7" t="s">
@@ -2523,20 +2518,20 @@
         <v>16000</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M34" s="16"/>
     </row>
     <row r="35" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="7" t="s">
@@ -2553,20 +2548,20 @@
         <v>2500</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M35" s="16"/>
     </row>
     <row r="36" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="7" t="s">
@@ -2583,20 +2578,20 @@
         <v>3500</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="7" t="s">
@@ -2608,20 +2603,20 @@
       <c r="E37" s="17"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M37" s="16"/>
     </row>
     <row r="38" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="7" t="s">
@@ -2638,20 +2633,20 @@
         <v>16000</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M38" s="16"/>
     </row>
     <row r="39" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="7" t="s">
@@ -2668,20 +2663,20 @@
         <v>40000</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="7" t="s">
@@ -2698,20 +2693,20 @@
         <v>35000</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="7" t="s">
@@ -2728,20 +2723,20 @@
         <v>48000</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M41" s="16"/>
     </row>
     <row r="42" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="7" t="s">
@@ -2758,20 +2753,20 @@
         <v>3500</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="7" t="s">
@@ -2783,20 +2778,20 @@
       <c r="E43" s="17"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M43" s="16"/>
     </row>
     <row r="44" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="7" t="s">
@@ -2813,20 +2808,20 @@
         <v>16000</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M44" s="16"/>
     </row>
     <row r="45" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="7" t="s">
@@ -2843,20 +2838,20 @@
         <v>40000</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M45" s="16"/>
     </row>
     <row r="46" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="7" t="s">
@@ -2873,20 +2868,20 @@
         <v>48000</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="7" t="s">
@@ -2903,20 +2898,20 @@
         <v>3500</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M47" s="16"/>
     </row>
     <row r="48" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="7" t="s">
@@ -2928,20 +2923,20 @@
       <c r="E48" s="17"/>
       <c r="F48" s="9"/>
       <c r="G48" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M48" s="16"/>
     </row>
     <row r="49" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="7" t="s">
@@ -2958,20 +2953,20 @@
         <v>40000</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M49" s="16"/>
     </row>
     <row r="50" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="7" t="s">
@@ -2988,20 +2983,20 @@
         <v>48000</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M50" s="16"/>
     </row>
     <row r="51" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="7" t="s">
@@ -3018,20 +3013,20 @@
         <v>16000</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M51" s="16"/>
     </row>
     <row r="52" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="7" t="s">
@@ -3048,20 +3043,20 @@
         <v>10500</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M52" s="16"/>
     </row>
     <row r="53" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="7" t="s">
@@ -3078,20 +3073,20 @@
         <v>48000</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M53" s="16"/>
     </row>
     <row r="54" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="7" t="s">
@@ -3103,24 +3098,24 @@
       <c r="E54" s="17"/>
       <c r="F54" s="9"/>
       <c r="G54" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M54" s="16"/>
     </row>
     <row r="55" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" s="8">
         <v>10</v>
@@ -3133,20 +3128,20 @@
         <v>240000</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M55" s="16"/>
     </row>
     <row r="56" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="7" t="s">
@@ -3163,20 +3158,20 @@
         <v>11250</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M56" s="16"/>
     </row>
     <row r="57" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="7" t="s">
@@ -3193,20 +3188,20 @@
         <v>5250</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M57" s="16"/>
     </row>
     <row r="58" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="7" t="s">
@@ -3223,20 +3218,20 @@
         <v>7200</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M58" s="16"/>
     </row>
     <row r="59" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="7" t="s">
@@ -3253,20 +3248,20 @@
         <v>10800</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M59" s="16"/>
     </row>
     <row r="60" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="7" t="s">
@@ -3283,20 +3278,20 @@
         <v>160000</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="7" t="s">
@@ -3313,20 +3308,20 @@
         <v>35000</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="7" t="s">
@@ -3338,20 +3333,20 @@
       <c r="E62" s="17"/>
       <c r="F62" s="9"/>
       <c r="G62" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="7" t="s">
@@ -3363,20 +3358,20 @@
       <c r="E63" s="17"/>
       <c r="F63" s="9"/>
       <c r="G63" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="7" t="s">
@@ -3388,20 +3383,20 @@
       <c r="E64" s="17"/>
       <c r="F64" s="9"/>
       <c r="G64" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="7" t="s">
@@ -3413,20 +3408,20 @@
       <c r="E65" s="17"/>
       <c r="F65" s="9"/>
       <c r="G65" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M65" s="16"/>
     </row>
     <row r="66" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="7" t="s">
@@ -3443,24 +3438,24 @@
         <v>96000</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M66" s="16"/>
     </row>
     <row r="67" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D67" s="8">
         <v>13</v>
@@ -3473,24 +3468,24 @@
         <v>312000</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M67" s="16"/>
     </row>
     <row r="68" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D68" s="8">
         <v>2</v>
@@ -3503,20 +3498,20 @@
         <v>13050</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M68" s="16"/>
     </row>
     <row r="69" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="7" t="s">
@@ -3533,20 +3528,20 @@
         <v>15000</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M69" s="16"/>
     </row>
     <row r="70" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="7" t="s">
@@ -3563,20 +3558,20 @@
         <v>45000</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M70" s="16"/>
     </row>
     <row r="71" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="7" t="s">
@@ -3593,20 +3588,20 @@
         <v>25200</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M71" s="16"/>
     </row>
     <row r="72" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="7" t="s">
@@ -3623,20 +3618,20 @@
         <v>2500</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M72" s="16"/>
     </row>
     <row r="73" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="7" t="s">
@@ -3653,20 +3648,20 @@
         <v>5250</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M73" s="16"/>
     </row>
     <row r="74" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="7" t="s">
@@ -3683,20 +3678,20 @@
         <v>38000</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M74" s="16"/>
     </row>
     <row r="75" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="7" t="s">
@@ -3708,20 +3703,20 @@
       <c r="E75" s="17"/>
       <c r="F75" s="9"/>
       <c r="G75" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M75" s="16"/>
     </row>
     <row r="76" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="7" t="s">
@@ -3738,20 +3733,20 @@
         <v>10600</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M76" s="16"/>
     </row>
     <row r="77" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="7" t="s">
@@ -3768,24 +3763,24 @@
         <v>4000</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M77" s="16"/>
     </row>
     <row r="78" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D78" s="8">
         <v>6</v>
@@ -3798,20 +3793,20 @@
         <v>6000</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M78" s="16"/>
     </row>
     <row r="79" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="7" t="s">
@@ -3828,20 +3823,20 @@
         <v>500</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M79" s="16"/>
     </row>
     <row r="80" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="7" t="s">
@@ -3853,20 +3848,20 @@
       <c r="E80" s="17"/>
       <c r="F80" s="9"/>
       <c r="G80" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M80" s="16"/>
     </row>
     <row r="81" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="7" t="s">
@@ -3883,20 +3878,20 @@
         <v>750</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M81" s="16"/>
     </row>
     <row r="82" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="7" t="s">
@@ -3913,20 +3908,20 @@
         <v>18750</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M82" s="16"/>
     </row>
     <row r="83" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="7" t="s">
@@ -3943,20 +3938,20 @@
         <v>4000</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I83" s="10"/>
       <c r="J83" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M83" s="16"/>
     </row>
     <row r="84" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="7" t="s">
@@ -3973,20 +3968,20 @@
         <v>10000</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M84" s="16"/>
     </row>
     <row r="85" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="7" t="s">
@@ -4003,20 +3998,20 @@
         <v>15000</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M85" s="16"/>
     </row>
     <row r="86" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="7" t="s">
@@ -4033,20 +4028,20 @@
         <v>1250</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M86" s="16"/>
     </row>
     <row r="87" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="7" t="s">
@@ -4063,20 +4058,20 @@
         <v>3000</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M87" s="16"/>
     </row>
     <row r="88" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="7" t="s">
@@ -4093,20 +4088,20 @@
         <v>25000</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M88" s="16"/>
     </row>
     <row r="89" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="7" t="s">
@@ -4123,20 +4118,20 @@
         <v>12750</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M89" s="16"/>
     </row>
     <row r="90" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="7" t="s">
@@ -4153,20 +4148,20 @@
         <v>500</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I90" s="10"/>
       <c r="J90" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M90" s="16"/>
     </row>
     <row r="91" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="7" t="s">
@@ -4183,20 +4178,20 @@
         <v>140000</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I91" s="10"/>
       <c r="J91" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M91" s="16"/>
     </row>
     <row r="92" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="7" t="s">
@@ -4213,20 +4208,20 @@
         <v>7000</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M92" s="16"/>
     </row>
     <row r="93" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="7" t="s">
@@ -4243,20 +4238,20 @@
         <v>800</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M93" s="16"/>
     </row>
     <row r="94" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="7" t="s">
@@ -4273,20 +4268,20 @@
         <v>1250</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M94" s="16"/>
     </row>
     <row r="95" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="7" t="s">
@@ -4303,20 +4298,20 @@
         <v>1250</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M95" s="16"/>
     </row>
     <row r="96" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="7" t="s">
@@ -4333,20 +4328,20 @@
         <v>3000</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M96" s="16"/>
     </row>
     <row r="97" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="7" t="s">
@@ -4363,20 +4358,20 @@
         <v>1000</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M97" s="16"/>
     </row>
     <row r="98" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" s="19"/>
       <c r="C98" s="7" t="s">
@@ -4393,20 +4388,20 @@
         <v>2000</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I98" s="10"/>
       <c r="J98" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M98" s="16"/>
     </row>
     <row r="99" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="7" t="s">
@@ -4423,20 +4418,20 @@
         <v>11000</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M99" s="16"/>
     </row>
     <row r="100" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" s="19">
         <v>1</v>
@@ -4455,20 +4450,20 @@
         <v>9000</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I100" s="10"/>
       <c r="J100" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M100" s="16"/>
     </row>
     <row r="101" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" s="19">
         <v>1</v>
@@ -4487,20 +4482,20 @@
         <v>30000</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M101" s="16"/>
     </row>
     <row r="102" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" s="19">
         <v>1</v>
@@ -4519,20 +4514,20 @@
         <v>28000</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M102" s="16"/>
     </row>
     <row r="103" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" s="19">
         <v>1</v>
@@ -4551,20 +4546,20 @@
         <v>28000</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M103" s="16"/>
     </row>
     <row r="104" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B104" s="19">
         <v>1</v>
@@ -4583,20 +4578,20 @@
         <v>26000</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M104" s="16"/>
     </row>
     <row r="105" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B105" s="19">
         <v>2</v>
@@ -4615,20 +4610,20 @@
         <v>48000</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M105" s="16"/>
     </row>
     <row r="106" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B106" s="19">
         <v>4</v>
@@ -4647,20 +4642,20 @@
         <v>96000</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M106" s="16"/>
     </row>
     <row r="107" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B107" s="19">
         <v>10</v>
@@ -4679,20 +4674,20 @@
         <v>220000</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I107" s="10"/>
       <c r="J107" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M107" s="16"/>
     </row>
     <row r="108" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B108" s="7">
         <v>2</v>
@@ -4711,14 +4706,14 @@
         <v>48000</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M108" s="16"/>
     </row>

--- a/data/quotation_princing_analysis/INDEPENDENT CIP EVAPORATOR CIR RETURN LINE GOING TO IS 400M3 TANK - FEDCON.xlsx
+++ b/data/quotation_princing_analysis/INDEPENDENT CIP EVAPORATOR CIR RETURN LINE GOING TO IS 400M3 TANK - FEDCON.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\00_ML\00_Power BI\docu1\tbmc-data-management\data\quotation_princing_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHTadenaFr\Documents\tbmc-data-management\data\quotation_princing_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006EFD7C-A1C9-4740-84EE-6830A17F15DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Reconcillation -Original cost" sheetId="10" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="_5SHUTTLEBUS">#N/A</definedName>
     <definedName name="_BUS142">#N/A</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reconcillation -Original cost'!$A$1:$J$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reconcillation -Original cost'!$A$1:$J$88</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
@@ -34,7 +33,7 @@
     <definedName name="MACHINETOOLS">#N/A</definedName>
     <definedName name="Months">[1]Sheet5!$A$1:$B$13</definedName>
     <definedName name="past" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Reconcillation -Original cost'!$A$1:$F$108</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Reconcillation -Original cost'!$A$1:$F$88</definedName>
     <definedName name="Print_Area_MI">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Reconcillation -Original cost'!$1:$1</definedName>
     <definedName name="RELOCAFETERIA">#N/A</definedName>
@@ -42,7 +41,7 @@
     <definedName name="REPLROOFPREP">#N/A</definedName>
     <definedName name="YARDGOAT">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="118">
   <si>
     <t>UNIT</t>
   </si>
@@ -419,11 +418,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.00_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.00_)"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -896,9 +895,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -910,13 +909,13 @@
     <xf numFmtId="10" fontId="10" fillId="23" borderId="6" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -933,7 +932,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -951,13 +950,13 @@
     <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -969,7 +968,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1019,33 +1018,44 @@
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="28" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Currency 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2" xfId="29"/>
+    <cellStyle name="Currency 2" xfId="30"/>
     <cellStyle name="Explanatory Text" xfId="31" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="32" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Grey" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Grey" xfId="33"/>
     <cellStyle name="Heading 1" xfId="34" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="35" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="36" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="37" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="38" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Input [yellow]" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Input [yellow]" xfId="39"/>
     <cellStyle name="Linked Cell" xfId="40" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="41" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style1" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Normal 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Normal_CDOF-EN-F-07-001 Technical Purchase Requisition Form_ENGG-00520-WAREHOUSE FLOORING REPAIR" xfId="43" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal - Style1" xfId="42"/>
+    <cellStyle name="Normal 2" xfId="52"/>
+    <cellStyle name="Normal_CDOF-EN-F-07-001 Technical Purchase Requisition Form_ENGG-00520-WAREHOUSE FLOORING REPAIR" xfId="43"/>
     <cellStyle name="Note" xfId="44" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="45" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent [2]" xfId="46" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Percent 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Style 1" xfId="48" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Percent [2]" xfId="46"/>
+    <cellStyle name="Percent 2" xfId="47"/>
+    <cellStyle name="Style 1" xfId="48"/>
     <cellStyle name="Title" xfId="49" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="50" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="51" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1064,7 +1074,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="dcf-ror compressed form"/>
@@ -1205,9 +1215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1245,9 +1255,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1282,7 +1292,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1317,7 +1327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1490,30 +1500,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="101.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="101.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="21" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="90.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="22.33203125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" style="21" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="23" customWidth="1"/>
-    <col min="14" max="15" width="3.5546875" style="23" customWidth="1"/>
-    <col min="16" max="16384" width="3.5546875" style="21"/>
+    <col min="4" max="4" width="11.5703125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="90.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="22.28515625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="21" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="23" customWidth="1"/>
+    <col min="14" max="15" width="3.5703125" style="23" customWidth="1"/>
+    <col min="16" max="16384" width="3.5703125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1546,7 +1556,7 @@
       </c>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -1577,7 +1587,7 @@
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -1608,7 +1618,7 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -1639,7 +1649,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1670,7 +1680,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -1701,7 +1711,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -1732,7 +1742,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1763,7 +1773,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -1794,7 +1804,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -1825,7 +1835,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -1856,7 +1866,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -1887,7 +1897,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -1918,7 +1928,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1949,7 +1959,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -1980,7 +1990,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -2011,7 +2021,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -2042,7 +2052,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -2073,7 +2083,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -2098,7 +2108,7 @@
       </c>
       <c r="M19" s="16"/>
     </row>
-    <row r="20" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -2123,7 +2133,7 @@
       </c>
       <c r="M20" s="16"/>
     </row>
-    <row r="21" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
@@ -2148,7 +2158,7 @@
       </c>
       <c r="M21" s="16"/>
     </row>
-    <row r="22" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -2173,7 +2183,7 @@
       </c>
       <c r="M22" s="16"/>
     </row>
-    <row r="23" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -2182,15 +2192,14 @@
         <v>16</v>
       </c>
       <c r="D23" s="8">
-        <f>1+1+1+1</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E23" s="17">
         <v>16000</v>
       </c>
       <c r="F23" s="9">
         <f t="shared" ref="F23:F32" si="3">E23*D23</f>
-        <v>64000</v>
+        <v>224000</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>117</v>
@@ -2204,7 +2213,7 @@
       </c>
       <c r="M23" s="16"/>
     </row>
-    <row r="24" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -2234,7 +2243,7 @@
       </c>
       <c r="M24" s="16"/>
     </row>
-    <row r="25" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -2243,14 +2252,14 @@
         <v>6</v>
       </c>
       <c r="D25" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" s="17">
         <v>5000</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>117</v>
@@ -2264,7 +2273,7 @@
       </c>
       <c r="M25" s="16"/>
     </row>
-    <row r="26" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>52</v>
       </c>
@@ -2294,7 +2303,7 @@
       </c>
       <c r="M26" s="16"/>
     </row>
-    <row r="27" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -2324,7 +2333,7 @@
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -2354,7 +2363,7 @@
       </c>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
@@ -2384,7 +2393,7 @@
       </c>
       <c r="M29" s="16"/>
     </row>
-    <row r="30" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -2414,7 +2423,7 @@
       </c>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>57</v>
       </c>
@@ -2444,7 +2453,7 @@
       </c>
       <c r="M31" s="16"/>
     </row>
-    <row r="32" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
@@ -2453,14 +2462,14 @@
         <v>5</v>
       </c>
       <c r="D32" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32" s="17">
         <v>20000</v>
       </c>
       <c r="F32" s="9">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>117</v>
@@ -2474,7 +2483,7 @@
       </c>
       <c r="M32" s="16"/>
     </row>
-    <row r="33" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
@@ -2483,7 +2492,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="9"/>
@@ -2499,7 +2508,7 @@
       </c>
       <c r="M33" s="16"/>
     </row>
-    <row r="34" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>60</v>
       </c>
@@ -2508,14 +2517,14 @@
         <v>16</v>
       </c>
       <c r="D34" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34" s="17">
         <v>16000</v>
       </c>
       <c r="F34" s="9">
         <f>E34*D34</f>
-        <v>16000</v>
+        <v>64000</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>117</v>
@@ -2529,7 +2538,7 @@
       </c>
       <c r="M34" s="16"/>
     </row>
-    <row r="35" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>61</v>
       </c>
@@ -2559,7 +2568,7 @@
       </c>
       <c r="M35" s="16"/>
     </row>
-    <row r="36" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>62</v>
       </c>
@@ -2568,14 +2577,14 @@
         <v>6</v>
       </c>
       <c r="D36" s="8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E36" s="17">
         <v>1750</v>
       </c>
       <c r="F36" s="9">
         <f>E36*D36</f>
-        <v>3500</v>
+        <v>28000</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>117</v>
@@ -2589,19 +2598,24 @@
       </c>
       <c r="M36" s="16"/>
     </row>
-    <row r="37" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D37" s="8">
-        <v>1</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="E37" s="17">
+        <v>40000</v>
+      </c>
+      <c r="F37" s="9">
+        <f>E37*D37</f>
+        <v>120000</v>
+      </c>
       <c r="G37" s="10" t="s">
         <v>117</v>
       </c>
@@ -2614,23 +2628,23 @@
       </c>
       <c r="M37" s="16"/>
     </row>
-    <row r="38" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D38" s="8">
         <v>1</v>
       </c>
       <c r="E38" s="17">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="F38" s="9">
         <f>E38*D38</f>
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>117</v>
@@ -2644,23 +2658,23 @@
       </c>
       <c r="M38" s="16"/>
     </row>
-    <row r="39" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D39" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" s="17">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="F39" s="9">
         <f>E39*D39</f>
-        <v>40000</v>
+        <v>144000</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>117</v>
@@ -2674,9 +2688,9 @@
       </c>
       <c r="M39" s="16"/>
     </row>
-    <row r="40" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="7" t="s">
@@ -2685,13 +2699,8 @@
       <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" s="17">
-        <v>35000</v>
-      </c>
-      <c r="F40" s="9">
-        <f>E40*D40</f>
-        <v>35000</v>
-      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="10" t="s">
         <v>117</v>
       </c>
@@ -2704,9 +2713,9 @@
       </c>
       <c r="M40" s="16"/>
     </row>
-    <row r="41" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="7" t="s">
@@ -2734,24 +2743,19 @@
       </c>
       <c r="M41" s="16"/>
     </row>
-    <row r="42" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="8">
-        <v>2</v>
-      </c>
-      <c r="E42" s="17">
-        <v>1750</v>
-      </c>
-      <c r="F42" s="9">
-        <f>E42*D42</f>
-        <v>3500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="10" t="s">
         <v>117</v>
       </c>
@@ -2764,19 +2768,24 @@
       </c>
       <c r="M42" s="16"/>
     </row>
-    <row r="43" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="7" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="D43" s="8">
-        <v>1</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="E43" s="18">
+        <v>24000</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" ref="F43:F45" si="4">E43*D43</f>
+        <v>240000</v>
+      </c>
       <c r="G43" s="10" t="s">
         <v>117</v>
       </c>
@@ -2789,23 +2798,23 @@
       </c>
       <c r="M43" s="16"/>
     </row>
-    <row r="44" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D44" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" s="17">
-        <v>16000</v>
+        <v>3750</v>
       </c>
       <c r="F44" s="9">
-        <f>E44*D44</f>
-        <v>16000</v>
+        <f t="shared" si="4"/>
+        <v>11250</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>117</v>
@@ -2819,23 +2828,23 @@
       </c>
       <c r="M44" s="16"/>
     </row>
-    <row r="45" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D45" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E45" s="17">
-        <v>40000</v>
+        <v>1800</v>
       </c>
       <c r="F45" s="9">
-        <f>E45*D45</f>
-        <v>40000</v>
+        <f t="shared" si="4"/>
+        <v>10800</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>117</v>
@@ -2849,9 +2858,9 @@
       </c>
       <c r="M45" s="16"/>
     </row>
-    <row r="46" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="7" t="s">
@@ -2860,13 +2869,8 @@
       <c r="D46" s="8">
         <v>1</v>
       </c>
-      <c r="E46" s="17">
-        <v>48000</v>
-      </c>
-      <c r="F46" s="9">
-        <f>E46*D46</f>
-        <v>48000</v>
-      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="10" t="s">
         <v>117</v>
       </c>
@@ -2879,24 +2883,19 @@
       </c>
       <c r="M46" s="16"/>
     </row>
-    <row r="47" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="8">
-        <v>2</v>
-      </c>
-      <c r="E47" s="17">
-        <v>1750</v>
-      </c>
-      <c r="F47" s="9">
-        <f>E47*D47</f>
-        <v>3500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="10" t="s">
         <v>117</v>
       </c>
@@ -2909,9 +2908,9 @@
       </c>
       <c r="M47" s="16"/>
     </row>
-    <row r="48" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="7" t="s">
@@ -2934,23 +2933,23 @@
       </c>
       <c r="M48" s="16"/>
     </row>
-    <row r="49" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E49" s="17">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="F49" s="9">
-        <f>E49*D49</f>
-        <v>40000</v>
+        <f t="shared" ref="F49:F55" si="5">E49*D49</f>
+        <v>96000</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>117</v>
@@ -2964,23 +2963,23 @@
       </c>
       <c r="M49" s="16"/>
     </row>
-    <row r="50" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="7" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="D50" s="8">
-        <v>1</v>
-      </c>
-      <c r="E50" s="17">
-        <v>48000</v>
+        <v>13</v>
+      </c>
+      <c r="E50" s="18">
+        <v>24000</v>
       </c>
       <c r="F50" s="9">
-        <f>E50*D50</f>
-        <v>48000</v>
+        <f t="shared" si="5"/>
+        <v>312000</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>117</v>
@@ -2994,23 +2993,23 @@
       </c>
       <c r="M50" s="16"/>
     </row>
-    <row r="51" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="7" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="D51" s="8">
-        <v>1</v>
-      </c>
-      <c r="E51" s="17">
-        <v>16000</v>
+        <v>2</v>
+      </c>
+      <c r="E51" s="18">
+        <v>6525</v>
       </c>
       <c r="F51" s="9">
-        <f>E51*D51</f>
-        <v>16000</v>
+        <f t="shared" si="5"/>
+        <v>13050</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>117</v>
@@ -3024,23 +3023,23 @@
       </c>
       <c r="M51" s="16"/>
     </row>
-    <row r="52" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E52" s="17">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="F52" s="9">
-        <f>E52*D52</f>
-        <v>10500</v>
+        <f t="shared" si="5"/>
+        <v>15000</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>117</v>
@@ -3054,23 +3053,23 @@
       </c>
       <c r="M52" s="16"/>
     </row>
-    <row r="53" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="8">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E53" s="17">
-        <v>48000</v>
+        <v>1800</v>
       </c>
       <c r="F53" s="9">
-        <f>E53*D53</f>
-        <v>48000</v>
+        <f t="shared" si="5"/>
+        <v>45000</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>117</v>
@@ -3084,19 +3083,24 @@
       </c>
       <c r="M53" s="16"/>
     </row>
-    <row r="54" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="8">
-        <v>1</v>
-      </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="E54" s="17">
+        <v>1800</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" si="5"/>
+        <v>25200</v>
+      </c>
       <c r="G54" s="10" t="s">
         <v>117</v>
       </c>
@@ -3109,23 +3113,23 @@
       </c>
       <c r="M54" s="16"/>
     </row>
-    <row r="55" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="7" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="D55" s="8">
         <v>10</v>
       </c>
-      <c r="E55" s="18">
-        <v>24000</v>
+      <c r="E55" s="17">
+        <v>250</v>
       </c>
       <c r="F55" s="9">
-        <f t="shared" ref="F55:F61" si="4">E55*D55</f>
-        <v>240000</v>
+        <f t="shared" si="5"/>
+        <v>2500</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>117</v>
@@ -3139,24 +3143,19 @@
       </c>
       <c r="M55" s="16"/>
     </row>
-    <row r="56" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="8">
-        <v>3</v>
-      </c>
-      <c r="E56" s="17">
-        <v>3750</v>
-      </c>
-      <c r="F56" s="9">
-        <f t="shared" si="4"/>
-        <v>11250</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="9"/>
       <c r="G56" s="10" t="s">
         <v>117</v>
       </c>
@@ -3169,23 +3168,23 @@
       </c>
       <c r="M56" s="16"/>
     </row>
-    <row r="57" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="17">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="F57" s="9">
-        <f t="shared" si="4"/>
-        <v>5250</v>
+        <f>E57*D57</f>
+        <v>10600</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>117</v>
@@ -3199,23 +3198,23 @@
       </c>
       <c r="M57" s="16"/>
     </row>
-    <row r="58" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D58" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E58" s="17">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F58" s="9">
-        <f t="shared" si="4"/>
-        <v>7200</v>
+        <f>E58*D58</f>
+        <v>4000</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>117</v>
@@ -3229,23 +3228,23 @@
       </c>
       <c r="M58" s="16"/>
     </row>
-    <row r="59" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="7" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="D59" s="8">
         <v>6</v>
       </c>
-      <c r="E59" s="17">
-        <v>1800</v>
+      <c r="E59" s="18">
+        <v>1000</v>
       </c>
       <c r="F59" s="9">
-        <f t="shared" si="4"/>
-        <v>10800</v>
+        <f>E59*D59</f>
+        <v>6000</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>117</v>
@@ -3259,23 +3258,23 @@
       </c>
       <c r="M59" s="16"/>
     </row>
-    <row r="60" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D60" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E60" s="17">
-        <v>16000</v>
+        <v>500</v>
       </c>
       <c r="F60" s="9">
-        <f t="shared" si="4"/>
-        <v>160000</v>
+        <f>E60*D60</f>
+        <v>500</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>117</v>
@@ -3289,24 +3288,19 @@
       </c>
       <c r="M60" s="16"/>
     </row>
-    <row r="61" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61" s="8">
-        <v>1</v>
-      </c>
-      <c r="E61" s="17">
-        <v>35000</v>
-      </c>
-      <c r="F61" s="9">
-        <f t="shared" si="4"/>
-        <v>35000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="9"/>
       <c r="G61" s="10" t="s">
         <v>117</v>
       </c>
@@ -3319,19 +3313,24 @@
       </c>
       <c r="M61" s="16"/>
     </row>
-    <row r="62" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D62" s="8">
         <v>1</v>
       </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="9"/>
+      <c r="E62" s="17">
+        <v>750</v>
+      </c>
+      <c r="F62" s="9">
+        <f>E62*D62</f>
+        <v>750</v>
+      </c>
       <c r="G62" s="10" t="s">
         <v>117</v>
       </c>
@@ -3344,24 +3343,29 @@
       </c>
       <c r="M62" s="16"/>
     </row>
-    <row r="63" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="B63" s="19"/>
       <c r="C63" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="8">
-        <v>1</v>
-      </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="E63" s="18">
+        <v>200</v>
+      </c>
+      <c r="F63" s="9">
+        <f t="shared" ref="F63:F76" si="6">D63*E63</f>
+        <v>4000</v>
+      </c>
       <c r="G63" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10" t="s">
@@ -3369,24 +3373,29 @@
       </c>
       <c r="M63" s="16"/>
     </row>
-    <row r="64" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="B64" s="19"/>
       <c r="C64" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="8">
-        <v>1</v>
-      </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="E64" s="18">
+        <v>100</v>
+      </c>
+      <c r="F64" s="9">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
       <c r="G64" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10" t="s">
@@ -3394,24 +3403,29 @@
       </c>
       <c r="M64" s="16"/>
     </row>
-    <row r="65" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="B65" s="19"/>
       <c r="C65" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="8">
-        <v>1</v>
-      </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="E65" s="18">
+        <v>150</v>
+      </c>
+      <c r="F65" s="9">
+        <f t="shared" si="6"/>
+        <v>15000</v>
+      </c>
       <c r="G65" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10" t="s">
@@ -3419,29 +3433,29 @@
       </c>
       <c r="M65" s="16"/>
     </row>
-    <row r="66" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="B66" s="19"/>
       <c r="C66" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D66" s="8">
-        <v>6</v>
-      </c>
-      <c r="E66" s="17">
-        <v>16000</v>
+        <v>5</v>
+      </c>
+      <c r="E66" s="18">
+        <v>250</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" ref="F66:F74" si="5">E66*D66</f>
-        <v>96000</v>
+        <f t="shared" si="6"/>
+        <v>1250</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10" t="s">
@@ -3449,29 +3463,29 @@
       </c>
       <c r="M66" s="16"/>
     </row>
-    <row r="67" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="B67" s="19"/>
       <c r="C67" s="7" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="D67" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E67" s="18">
-        <v>24000</v>
+        <v>150</v>
       </c>
       <c r="F67" s="9">
-        <f t="shared" si="5"/>
-        <v>312000</v>
+        <f t="shared" si="6"/>
+        <v>3000</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="10" t="s">
@@ -3479,29 +3493,29 @@
       </c>
       <c r="M67" s="16"/>
     </row>
-    <row r="68" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="B68" s="19"/>
       <c r="C68" s="7" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="D68" s="8">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E68" s="18">
-        <v>6525</v>
+        <v>1000</v>
       </c>
       <c r="F68" s="9">
-        <f t="shared" si="5"/>
-        <v>13050</v>
+        <f t="shared" si="6"/>
+        <v>25000</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="10" t="s">
@@ -3509,29 +3523,29 @@
       </c>
       <c r="M68" s="16"/>
     </row>
-    <row r="69" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="B69" s="19"/>
       <c r="C69" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D69" s="8">
-        <v>4</v>
-      </c>
-      <c r="E69" s="17">
-        <v>3750</v>
+        <v>15</v>
+      </c>
+      <c r="E69" s="18">
+        <v>850</v>
       </c>
       <c r="F69" s="9">
-        <f t="shared" si="5"/>
-        <v>15000</v>
+        <f t="shared" si="6"/>
+        <v>12750</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="10" t="s">
@@ -3539,29 +3553,29 @@
       </c>
       <c r="M69" s="16"/>
     </row>
-    <row r="70" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="B70" s="19"/>
       <c r="C70" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="8">
-        <v>25</v>
-      </c>
-      <c r="E70" s="17">
-        <v>1800</v>
+        <v>8</v>
+      </c>
+      <c r="D70" s="20">
+        <v>10</v>
+      </c>
+      <c r="E70" s="18">
+        <v>50</v>
       </c>
       <c r="F70" s="9">
-        <f t="shared" si="5"/>
-        <v>45000</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10" t="s">
@@ -3569,29 +3583,29 @@
       </c>
       <c r="M70" s="16"/>
     </row>
-    <row r="71" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="13"/>
+        <v>97</v>
+      </c>
+      <c r="B71" s="19"/>
       <c r="C71" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D71" s="8">
-        <v>14</v>
-      </c>
-      <c r="E71" s="17">
-        <v>1800</v>
+        <v>35</v>
+      </c>
+      <c r="E71" s="18">
+        <v>4000</v>
       </c>
       <c r="F71" s="9">
-        <f t="shared" si="5"/>
-        <v>25200</v>
+        <f t="shared" si="6"/>
+        <v>140000</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="10" t="s">
@@ -3599,29 +3613,29 @@
       </c>
       <c r="M71" s="16"/>
     </row>
-    <row r="72" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="13"/>
+        <v>98</v>
+      </c>
+      <c r="B72" s="19"/>
       <c r="C72" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="8">
-        <v>10</v>
-      </c>
-      <c r="E72" s="17">
-        <v>250</v>
+        <v>7</v>
+      </c>
+      <c r="D72" s="20">
+        <v>2</v>
+      </c>
+      <c r="E72" s="18">
+        <v>3500</v>
       </c>
       <c r="F72" s="9">
-        <f t="shared" si="5"/>
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>7000</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10" t="s">
@@ -3629,29 +3643,29 @@
       </c>
       <c r="M72" s="16"/>
     </row>
-    <row r="73" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="B73" s="19"/>
       <c r="C73" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="8">
-        <v>1</v>
-      </c>
-      <c r="E73" s="17">
-        <v>5250</v>
+      <c r="D73" s="20">
+        <v>2</v>
+      </c>
+      <c r="E73" s="18">
+        <v>400</v>
       </c>
       <c r="F73" s="9">
-        <f t="shared" si="5"/>
-        <v>5250</v>
+        <f t="shared" si="6"/>
+        <v>800</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10" t="s">
@@ -3659,29 +3673,29 @@
       </c>
       <c r="M73" s="16"/>
     </row>
-    <row r="74" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B74" s="13"/>
+        <v>100</v>
+      </c>
+      <c r="B74" s="19"/>
       <c r="C74" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="8">
-        <v>1</v>
-      </c>
-      <c r="E74" s="17">
-        <v>38000</v>
+        <v>6</v>
+      </c>
+      <c r="D74" s="20">
+        <v>50</v>
+      </c>
+      <c r="E74" s="18">
+        <v>25</v>
       </c>
       <c r="F74" s="9">
-        <f t="shared" si="5"/>
-        <v>38000</v>
+        <f t="shared" si="6"/>
+        <v>1250</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="10" t="s">
@@ -3689,24 +3703,29 @@
       </c>
       <c r="M74" s="16"/>
     </row>
-    <row r="75" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="B75" s="19"/>
       <c r="C75" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="8">
-        <v>1</v>
-      </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="9"/>
+      <c r="D75" s="20">
+        <v>50</v>
+      </c>
+      <c r="E75" s="18">
+        <v>25</v>
+      </c>
+      <c r="F75" s="9">
+        <f t="shared" si="6"/>
+        <v>1250</v>
+      </c>
       <c r="G75" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10" t="s">
@@ -3714,29 +3733,29 @@
       </c>
       <c r="M75" s="16"/>
     </row>
-    <row r="76" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="B76" s="19"/>
       <c r="C76" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="8">
-        <v>2</v>
-      </c>
-      <c r="E76" s="17">
-        <v>5300</v>
+      <c r="D76" s="20">
+        <v>20</v>
+      </c>
+      <c r="E76" s="18">
+        <v>150</v>
       </c>
       <c r="F76" s="9">
-        <f>E76*D76</f>
-        <v>10600</v>
+        <f t="shared" si="6"/>
+        <v>3000</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10" t="s">
@@ -3744,29 +3763,29 @@
       </c>
       <c r="M76" s="16"/>
     </row>
-    <row r="77" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="B77" s="19"/>
       <c r="C77" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="8">
-        <v>2</v>
-      </c>
-      <c r="E77" s="17">
-        <v>2000</v>
+        <v>9</v>
+      </c>
+      <c r="D77" s="20">
+        <v>1</v>
+      </c>
+      <c r="E77" s="18">
+        <v>1000</v>
       </c>
       <c r="F77" s="9">
-        <f>E77*D77</f>
-        <v>4000</v>
+        <f>D77*E77</f>
+        <v>1000</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10" t="s">
@@ -3774,29 +3793,29 @@
       </c>
       <c r="M77" s="16"/>
     </row>
-    <row r="78" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="B78" s="19"/>
       <c r="C78" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D78" s="8">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D78" s="20">
+        <v>1</v>
       </c>
       <c r="E78" s="18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F78" s="9">
-        <f>E78*D78</f>
-        <v>6000</v>
+        <f>D78*E78</f>
+        <v>2000</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10" t="s">
@@ -3804,29 +3823,29 @@
       </c>
       <c r="M78" s="16"/>
     </row>
-    <row r="79" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="13"/>
+        <v>105</v>
+      </c>
+      <c r="B79" s="19"/>
       <c r="C79" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="8">
+        <v>5</v>
+      </c>
+      <c r="D79" s="20">
         <v>1</v>
       </c>
-      <c r="E79" s="17">
-        <v>500</v>
+      <c r="E79" s="18">
+        <v>11000</v>
       </c>
       <c r="F79" s="9">
-        <f>E79*D79</f>
-        <v>500</v>
+        <f>D79*E79</f>
+        <v>11000</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10" t="s">
@@ -3834,24 +3853,31 @@
       </c>
       <c r="M79" s="16"/>
     </row>
-    <row r="80" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="B80" s="19">
+        <v>1</v>
+      </c>
       <c r="C80" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D80" s="8">
-        <v>2</v>
-      </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E80" s="18">
+        <v>1500</v>
+      </c>
+      <c r="F80" s="9">
+        <f>E80*D80*B80</f>
+        <v>9000</v>
+      </c>
       <c r="G80" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10" t="s">
@@ -3859,29 +3885,31 @@
       </c>
       <c r="M80" s="16"/>
     </row>
-    <row r="81" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="B81" s="19">
+        <v>1</v>
+      </c>
       <c r="C81" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D81" s="8">
-        <v>1</v>
-      </c>
-      <c r="E81" s="17">
+        <v>40</v>
+      </c>
+      <c r="E81" s="18">
         <v>750</v>
       </c>
       <c r="F81" s="9">
-        <f>E81*D81</f>
-        <v>750</v>
+        <f>E81*D81*B81</f>
+        <v>30000</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="10" t="s">
@@ -3889,29 +3917,31 @@
       </c>
       <c r="M81" s="16"/>
     </row>
-    <row r="82" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="B82" s="19">
+        <v>1</v>
+      </c>
       <c r="C82" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D82" s="8">
-        <v>1</v>
-      </c>
-      <c r="E82" s="17">
-        <v>18750</v>
+        <v>40</v>
+      </c>
+      <c r="E82" s="18">
+        <v>700</v>
       </c>
       <c r="F82" s="9">
-        <f t="shared" ref="F82" si="6">E82*D82</f>
-        <v>18750</v>
+        <f>E82*D82*B82</f>
+        <v>28000</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="10" t="s">
@@ -3919,29 +3949,31 @@
       </c>
       <c r="M82" s="16"/>
     </row>
-    <row r="83" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B83" s="19"/>
+        <v>109</v>
+      </c>
+      <c r="B83" s="19">
+        <v>1</v>
+      </c>
       <c r="C83" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D83" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E83" s="18">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F83" s="9">
-        <f t="shared" ref="F83:F96" si="7">D83*E83</f>
-        <v>4000</v>
+        <f t="shared" ref="F83:F88" si="7">E83*D83*B83</f>
+        <v>28000</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I83" s="10"/>
       <c r="J83" s="10" t="s">
@@ -3949,29 +3981,31 @@
       </c>
       <c r="M83" s="16"/>
     </row>
-    <row r="84" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="B84" s="19">
+        <v>1</v>
+      </c>
       <c r="C84" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D84" s="8">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E84" s="18">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="F84" s="9">
         <f t="shared" si="7"/>
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="10" t="s">
@@ -3979,29 +4013,31 @@
       </c>
       <c r="M84" s="16"/>
     </row>
-    <row r="85" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="19"/>
+        <v>111</v>
+      </c>
+      <c r="B85" s="19">
+        <v>2</v>
+      </c>
       <c r="C85" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D85" s="8">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E85" s="18">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F85" s="9">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>48000</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="10" t="s">
@@ -4009,29 +4045,31 @@
       </c>
       <c r="M85" s="16"/>
     </row>
-    <row r="86" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="19"/>
+        <v>112</v>
+      </c>
+      <c r="B86" s="19">
+        <v>4</v>
+      </c>
       <c r="C86" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D86" s="8">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E86" s="18">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="F86" s="9">
         <f t="shared" si="7"/>
-        <v>1250</v>
+        <v>96000</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="10" t="s">
@@ -4039,29 +4077,31 @@
       </c>
       <c r="M86" s="16"/>
     </row>
-    <row r="87" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="B87" s="19">
+        <v>10</v>
+      </c>
       <c r="C87" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D87" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E87" s="18">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="F87" s="9">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>220000</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="10" t="s">
@@ -4069,29 +4109,31 @@
       </c>
       <c r="M87" s="16"/>
     </row>
-    <row r="88" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="B88" s="7">
+        <v>2</v>
+      </c>
       <c r="C88" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D88" s="8">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E88" s="18">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F88" s="9">
         <f t="shared" si="7"/>
-        <v>25000</v>
+        <v>48000</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="10" t="s">
@@ -4099,627 +4141,12 @@
       </c>
       <c r="M88" s="16"/>
     </row>
-    <row r="89" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="8">
-        <v>15</v>
-      </c>
-      <c r="E89" s="18">
-        <v>850</v>
-      </c>
-      <c r="F89" s="9">
-        <f t="shared" si="7"/>
-        <v>12750</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M89" s="16"/>
-    </row>
-    <row r="90" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="20">
-        <v>10</v>
-      </c>
-      <c r="E90" s="18">
-        <v>50</v>
-      </c>
-      <c r="F90" s="9">
-        <f t="shared" si="7"/>
-        <v>500</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M90" s="16"/>
-    </row>
-    <row r="91" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="8">
-        <v>35</v>
-      </c>
-      <c r="E91" s="18">
-        <v>4000</v>
-      </c>
-      <c r="F91" s="9">
-        <f t="shared" si="7"/>
-        <v>140000</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M91" s="16"/>
-    </row>
-    <row r="92" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="20">
-        <v>2</v>
-      </c>
-      <c r="E92" s="18">
-        <v>3500</v>
-      </c>
-      <c r="F92" s="9">
-        <f t="shared" si="7"/>
-        <v>7000</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M92" s="16"/>
-    </row>
-    <row r="93" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="20">
-        <v>2</v>
-      </c>
-      <c r="E93" s="18">
-        <v>400</v>
-      </c>
-      <c r="F93" s="9">
-        <f t="shared" si="7"/>
-        <v>800</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M93" s="16"/>
-    </row>
-    <row r="94" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="20">
-        <v>50</v>
-      </c>
-      <c r="E94" s="18">
-        <v>25</v>
-      </c>
-      <c r="F94" s="9">
-        <f t="shared" si="7"/>
-        <v>1250</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M94" s="16"/>
-    </row>
-    <row r="95" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="20">
-        <v>50</v>
-      </c>
-      <c r="E95" s="18">
-        <v>25</v>
-      </c>
-      <c r="F95" s="9">
-        <f t="shared" si="7"/>
-        <v>1250</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M95" s="16"/>
-    </row>
-    <row r="96" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="20">
-        <v>20</v>
-      </c>
-      <c r="E96" s="18">
-        <v>150</v>
-      </c>
-      <c r="F96" s="9">
-        <f t="shared" si="7"/>
-        <v>3000</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M96" s="16"/>
-    </row>
-    <row r="97" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="20">
-        <v>1</v>
-      </c>
-      <c r="E97" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F97" s="9">
-        <f>D97*E97</f>
-        <v>1000</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M97" s="16"/>
-    </row>
-    <row r="98" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B98" s="19"/>
-      <c r="C98" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="20">
-        <v>1</v>
-      </c>
-      <c r="E98" s="18">
-        <v>2000</v>
-      </c>
-      <c r="F98" s="9">
-        <f>D98*E98</f>
-        <v>2000</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H98" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M98" s="16"/>
-    </row>
-    <row r="99" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B99" s="19"/>
-      <c r="C99" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="20">
-        <v>1</v>
-      </c>
-      <c r="E99" s="18">
-        <v>11000</v>
-      </c>
-      <c r="F99" s="9">
-        <f>D99*E99</f>
-        <v>11000</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H99" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M99" s="16"/>
-    </row>
-    <row r="100" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B100" s="19">
-        <v>1</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="8">
-        <v>6</v>
-      </c>
-      <c r="E100" s="18">
-        <v>1500</v>
-      </c>
-      <c r="F100" s="9">
-        <f>E100*D100*B100</f>
-        <v>9000</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M100" s="16"/>
-    </row>
-    <row r="101" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101" s="19">
-        <v>1</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="8">
-        <v>40</v>
-      </c>
-      <c r="E101" s="18">
-        <v>750</v>
-      </c>
-      <c r="F101" s="9">
-        <f>E101*D101*B101</f>
-        <v>30000</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H101" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M101" s="16"/>
-    </row>
-    <row r="102" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" s="19">
-        <v>1</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" s="8">
-        <v>40</v>
-      </c>
-      <c r="E102" s="18">
-        <v>700</v>
-      </c>
-      <c r="F102" s="9">
-        <f>E102*D102*B102</f>
-        <v>28000</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M102" s="16"/>
-    </row>
-    <row r="103" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B103" s="19">
-        <v>1</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="8">
-        <v>40</v>
-      </c>
-      <c r="E103" s="18">
-        <v>700</v>
-      </c>
-      <c r="F103" s="9">
-        <f t="shared" ref="F103:F108" si="8">E103*D103*B103</f>
-        <v>28000</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M103" s="16"/>
-    </row>
-    <row r="104" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B104" s="19">
-        <v>1</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D104" s="8">
-        <v>40</v>
-      </c>
-      <c r="E104" s="18">
-        <v>650</v>
-      </c>
-      <c r="F104" s="9">
-        <f t="shared" si="8"/>
-        <v>26000</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M104" s="16"/>
-    </row>
-    <row r="105" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105" s="19">
-        <v>2</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="8">
-        <v>40</v>
-      </c>
-      <c r="E105" s="18">
-        <v>600</v>
-      </c>
-      <c r="F105" s="9">
-        <f t="shared" si="8"/>
-        <v>48000</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M105" s="16"/>
-    </row>
-    <row r="106" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106" s="19">
-        <v>4</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="8">
-        <v>40</v>
-      </c>
-      <c r="E106" s="18">
-        <v>600</v>
-      </c>
-      <c r="F106" s="9">
-        <f t="shared" si="8"/>
-        <v>96000</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H106" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M106" s="16"/>
-    </row>
-    <row r="107" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107" s="19">
-        <v>10</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="8">
-        <v>40</v>
-      </c>
-      <c r="E107" s="18">
-        <v>550</v>
-      </c>
-      <c r="F107" s="9">
-        <f t="shared" si="8"/>
-        <v>220000</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H107" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M107" s="16"/>
-    </row>
-    <row r="108" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" s="7">
-        <v>2</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" s="8">
-        <v>40</v>
-      </c>
-      <c r="E108" s="18">
-        <v>600</v>
-      </c>
-      <c r="F108" s="9">
-        <f t="shared" si="8"/>
-        <v>48000</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M108" s="16"/>
-    </row>
-    <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:J108" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J88"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" scale="42" orientation="portrait" r:id="rId1"/>
@@ -4728,14 +4155,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
